--- a/Titus/Gurobi code/Final/Input/J-Maandag.xlsx
+++ b/Titus/Gurobi code/Final/Input/J-Maandag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA5AD32-C8C4-4C42-8C7E-A7B6DB21714F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEABDF40-5E64-48E9-B0D3-170A4CEE438B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{F8F4BE96-0852-4FE9-92AA-5DE23D1DD882}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{F41C9112-D8DC-46AF-B914-37F4B8D438E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F62EC-D9F4-4707-8DF2-1A49C32C99BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81CE67-CE6D-4814-870D-F3B2D0E18B2B}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,13 +480,13 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>3804.556826248127</v>
+        <v>3805</v>
       </c>
       <c r="C1">
-        <v>2969.4102058521962</v>
+        <v>2970</v>
       </c>
       <c r="D1">
-        <v>2691.0279990535528</v>
+        <v>2692</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>4314.9242053789731</v>
+        <v>4315</v>
       </c>
       <c r="C2">
-        <v>3294.18944711728</v>
+        <v>3294</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>4593.306412177616</v>
+        <v>4593</v>
       </c>
       <c r="C3">
-        <v>4129.3360675132108</v>
+        <v>4129</v>
       </c>
       <c r="D3">
-        <v>2551.8368956542308</v>
+        <v>2552</v>
       </c>
       <c r="E3">
-        <v>2319.8517233220282</v>
+        <v>2320</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>2412.6457922549089</v>
+        <v>2413</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>4314.9242053789731</v>
+        <v>4315</v>
       </c>
       <c r="C5">
-        <v>2876.6161369193151</v>
+        <v>2877</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -580,16 +580,16 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>4546.9093777111757</v>
+        <v>4547</v>
       </c>
       <c r="C6">
-        <v>3850.9538607145669</v>
+        <v>3851</v>
       </c>
       <c r="D6">
-        <v>2691.0279990535528</v>
+        <v>2692</v>
       </c>
       <c r="E6">
-        <v>2691.0279990535528</v>
+        <v>2692</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>3943.747929647448</v>
+        <v>3944</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>2783.8220679864339</v>
+        <v>2784</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>3758.1597917816862</v>
+        <v>3758</v>
       </c>
       <c r="C10">
-        <v>2691.0279990535528</v>
+        <v>2692</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>4593.306412177616</v>
+        <v>4593</v>
       </c>
       <c r="C11">
-        <v>3711.7627573152449</v>
+        <v>3712</v>
       </c>
       <c r="D11">
-        <v>3015.807240318637</v>
+        <v>3016</v>
       </c>
       <c r="E11">
-        <v>2041.469516523385</v>
+        <v>2042</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>3294.18944711728</v>
+        <v>3294</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>4454.1153087782941</v>
+        <v>4454</v>
       </c>
       <c r="C13">
-        <v>3154.998343717959</v>
+        <v>3155</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3062.2042747850769</v>
+        <v>3063</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>3386.9835160501621</v>
+        <v>3387</v>
       </c>
       <c r="C16">
-        <v>2691.0279990535528</v>
+        <v>2692</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>3201.3953781843989</v>
+        <v>3202</v>
       </c>
       <c r="C17">
-        <v>2737.425033519994</v>
+        <v>2738</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>2691.0279990535528</v>
+        <v>2692</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>3294.18944711728</v>
+        <v>3294</v>
       </c>
       <c r="C20">
-        <v>3154.998343717959</v>
+        <v>3155</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>3758.1597917816862</v>
+        <v>3758</v>
       </c>
       <c r="C21">
-        <v>2737.425033519994</v>
+        <v>2738</v>
       </c>
       <c r="D21">
-        <v>2644.630964587112</v>
+        <v>2645</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>4407.7182743118537</v>
+        <v>4408</v>
       </c>
       <c r="C22">
-        <v>3247.7924126508401</v>
+        <v>3248</v>
       </c>
       <c r="D22">
-        <v>3062.2042747850769</v>
+        <v>3063</v>
       </c>
       <c r="E22">
-        <v>1902.278413124063</v>
+        <v>1903</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>3665.365722848805</v>
+        <v>3666</v>
       </c>
       <c r="C24">
-        <v>3479.7775849830432</v>
+        <v>3480</v>
       </c>
       <c r="D24">
-        <v>2412.6457922549089</v>
+        <v>2413</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>3433.3805505166019</v>
+        <v>3434</v>
       </c>
       <c r="C25">
-        <v>3340.5864815837208</v>
+        <v>3341</v>
       </c>
       <c r="D25">
-        <v>3294.18944711728</v>
+        <v>3294</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>4407.7182743118537</v>
+        <v>4408</v>
       </c>
       <c r="C26">
-        <v>4361.3212398454134</v>
+        <v>4361</v>
       </c>
       <c r="D26">
-        <v>3201.3953781843989</v>
+        <v>3202</v>
       </c>
       <c r="E26">
-        <v>2134.2635854562659</v>
+        <v>2135</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>3340.5864815837208</v>
+        <v>3341</v>
       </c>
       <c r="C27">
-        <v>3247.7924126508401</v>
+        <v>3248</v>
       </c>
       <c r="D27">
-        <v>2319.8517233220282</v>
+        <v>2320</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>2319.8517233220282</v>
+        <v>2320</v>
       </c>
       <c r="C28">
         <v>0</v>
